--- a/MakeWorkReport/Part2.xlsx
+++ b/MakeWorkReport/Part2.xlsx
@@ -31,64 +31,64 @@
     <t>Id</t>
   </si>
   <si>
-    <t>Kimberly Li</t>
-  </si>
-  <si>
-    <t>Mary Martin</t>
-  </si>
-  <si>
-    <t>Corey Riddle Jr.</t>
-  </si>
-  <si>
-    <t>Mariah Mann</t>
-  </si>
-  <si>
-    <t>Joshua Nichols</t>
-  </si>
-  <si>
-    <t>Pamela Floyd</t>
-  </si>
-  <si>
-    <t>Kevin Levine</t>
-  </si>
-  <si>
-    <t>Robert Baldwin</t>
-  </si>
-  <si>
-    <t>Jillian Perez</t>
-  </si>
-  <si>
-    <t>Sara Ibarra</t>
-  </si>
-  <si>
-    <t>Terry Carlson</t>
-  </si>
-  <si>
-    <t>Tamara Roberson</t>
-  </si>
-  <si>
-    <t>Cody Anderson</t>
-  </si>
-  <si>
-    <t>Thomas Compton</t>
-  </si>
-  <si>
-    <t>Valerie Holder</t>
-  </si>
-  <si>
-    <t>Jennifer Hughes</t>
-  </si>
-  <si>
-    <t>Sara Wright</t>
-  </si>
-  <si>
-    <t>Jenny Campbell</t>
-  </si>
-  <si>
-    <t>Heather Daniel</t>
-  </si>
-  <si>
-    <t>Benjamin Marks</t>
+    <t>Andrew Thompson</t>
+  </si>
+  <si>
+    <t>Mr. Jonathon Berry</t>
+  </si>
+  <si>
+    <t>Catherine Harrell</t>
+  </si>
+  <si>
+    <t>Shawn Alexander</t>
+  </si>
+  <si>
+    <t>Laurie Gross</t>
+  </si>
+  <si>
+    <t>Jacob Elliott</t>
+  </si>
+  <si>
+    <t>Blake Marshall</t>
+  </si>
+  <si>
+    <t>Beth Maynard</t>
+  </si>
+  <si>
+    <t>Andrew Moore</t>
+  </si>
+  <si>
+    <t>Karen Arellano</t>
+  </si>
+  <si>
+    <t>Ashlee Walker</t>
+  </si>
+  <si>
+    <t>Alexis Foster DVM</t>
+  </si>
+  <si>
+    <t>John Collier</t>
+  </si>
+  <si>
+    <t>Rachel Evans</t>
+  </si>
+  <si>
+    <t>Marie Ortiz</t>
+  </si>
+  <si>
+    <t>Sarah Anderson</t>
+  </si>
+  <si>
+    <t>Leslie Frazier</t>
+  </si>
+  <si>
+    <t>Amber Mendoza</t>
+  </si>
+  <si>
+    <t>Michelle Harris</t>
+  </si>
+  <si>
+    <t>Jordan Freeman</t>
   </si>
 </sst>
 </file>
@@ -477,13 +477,13 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -494,13 +494,13 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -511,13 +511,13 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D4">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E4">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -528,13 +528,13 @@
         <v>8</v>
       </c>
       <c r="C5">
+        <v>26</v>
+      </c>
+      <c r="D5">
         <v>16</v>
       </c>
-      <c r="D5">
-        <v>12</v>
-      </c>
       <c r="E5">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -545,13 +545,13 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E6">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -562,13 +562,13 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D7">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E7">
-        <v>39</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -582,10 +582,10 @@
         <v>26</v>
       </c>
       <c r="D8">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -596,13 +596,13 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D9">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E9">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -613,13 +613,13 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -630,13 +630,13 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D11">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E11">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -647,13 +647,13 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D12">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E12">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -664,13 +664,13 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D13">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E13">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -681,13 +681,13 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D14">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E14">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -698,13 +698,13 @@
         <v>18</v>
       </c>
       <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15">
         <v>21</v>
       </c>
-      <c r="D15">
-        <v>26</v>
-      </c>
       <c r="E15">
-        <v>11</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -715,13 +715,13 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D16">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E16">
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -732,13 +732,13 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D17">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E17">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -749,13 +749,13 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D18">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E18">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -766,10 +766,10 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D19">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E19">
         <v>18</v>
@@ -783,13 +783,13 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D20">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E20">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -800,13 +800,13 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D21">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E21">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
